--- a/dat/monster_dat.xlsx
+++ b/dat/monster_dat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apache24\htdocs\project_monsters_py\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F35381A-D1A9-42BB-A681-396E2182BC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D6186E-6BE3-493B-BDD4-D48B84817C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="195" windowWidth="13920" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monster_dat" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4253" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4301" uniqueCount="986">
   <si>
     <t>no</t>
   </si>
@@ -3192,6 +3192,55 @@
   </si>
   <si>
     <t>マルタの国のモンスターマスター</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ウマ娘</t>
+    <rPh sb="2" eb="3">
+      <t>ムスメ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>青い4つ足</t>
+    <rPh sb="4" eb="5">
+      <t>アシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ヴァイオリン持ち</t>
+    <rPh sb="6" eb="7">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>うっうー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マチカネタンホイザ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>スマートファルコン</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>サウンドオブアース</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ナイスネイチャ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>イクノディクタス</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ツインターボ</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -4185,11 +4234,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF615"/>
+  <dimension ref="A1:AF621"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M570" sqref="M570"/>
+      <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O619" sqref="O619:P621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -37021,11 +37070,11 @@
         <v>239</v>
       </c>
       <c r="K515">
-        <f t="shared" ref="K515:K578" si="16">SUM(C515+D515+E515+F515+G515)</f>
+        <f t="shared" ref="K515:K584" si="16">SUM(C515+D515+E515+F515+G515)</f>
         <v>193</v>
       </c>
       <c r="L515">
-        <f t="shared" ref="L515:L578" si="17">SUM(H515+I515)</f>
+        <f t="shared" ref="L515:L584" si="17">SUM(H515+I515)</f>
         <v>640</v>
       </c>
       <c r="M515" t="s">
@@ -40853,66 +40902,69 @@
         <v>569</v>
       </c>
       <c r="B570" t="s">
-        <v>898</v>
+        <v>985</v>
       </c>
       <c r="C570">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D570">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E570">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F570">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G570">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H570">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="I570">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="J570" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="K570">
-        <f t="shared" si="16"/>
-        <v>233</v>
+        <f t="shared" ref="K570:K575" si="18">SUM(C570+D570+E570+F570+G570)</f>
+        <v>130</v>
       </c>
       <c r="L570">
-        <f t="shared" si="17"/>
-        <v>400</v>
+        <f t="shared" ref="L570:L575" si="19">SUM(H570+I570)</f>
+        <v>830</v>
       </c>
       <c r="M570" t="s">
-        <v>899</v>
+        <v>976</v>
       </c>
       <c r="N570" t="s">
         <v>494</v>
       </c>
       <c r="O570">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="P570">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="Q570">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R570" t="s">
-        <v>33</v>
+        <v>492</v>
       </c>
       <c r="S570" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="AD570" s="4" t="s">
-        <v>596</v>
+        <v>708</v>
+      </c>
+      <c r="AE570" s="4" t="s">
+        <v>977</v>
       </c>
       <c r="AF570" s="1">
-        <v>45402</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="571" spans="1:32" x14ac:dyDescent="0.4">
@@ -40920,66 +40972,69 @@
         <v>570</v>
       </c>
       <c r="B571" t="s">
-        <v>900</v>
+        <v>984</v>
       </c>
       <c r="C571">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D571">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E571">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="F571">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G571">
         <v>43</v>
       </c>
       <c r="H571">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="I571">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="J571" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="K571">
-        <f t="shared" si="16"/>
-        <v>195</v>
+        <f t="shared" si="18"/>
+        <v>133</v>
       </c>
       <c r="L571">
-        <f t="shared" si="17"/>
-        <v>500</v>
+        <f t="shared" si="19"/>
+        <v>850</v>
       </c>
       <c r="M571" t="s">
-        <v>899</v>
+        <v>976</v>
       </c>
       <c r="N571" t="s">
         <v>494</v>
       </c>
       <c r="O571">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="P571">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="Q571">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R571" t="s">
-        <v>33</v>
+        <v>772</v>
       </c>
       <c r="S571" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="AD571" s="4" t="s">
-        <v>596</v>
+        <v>781</v>
+      </c>
+      <c r="AE571" s="4" t="s">
+        <v>977</v>
       </c>
       <c r="AF571" s="1">
-        <v>45402</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="572" spans="1:32" x14ac:dyDescent="0.4">
@@ -40987,66 +41042,69 @@
         <v>571</v>
       </c>
       <c r="B572" t="s">
-        <v>901</v>
+        <v>983</v>
       </c>
       <c r="C572">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D572">
+        <v>11</v>
+      </c>
+      <c r="E572">
+        <v>21</v>
+      </c>
+      <c r="F572">
+        <v>25</v>
+      </c>
+      <c r="G572">
         <v>40</v>
       </c>
-      <c r="E572">
-        <v>33</v>
-      </c>
-      <c r="F572">
-        <v>32</v>
-      </c>
-      <c r="G572">
-        <v>45</v>
-      </c>
       <c r="H572">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="I572">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="J572" t="s">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="K572">
-        <f t="shared" si="16"/>
-        <v>192</v>
+        <f t="shared" si="18"/>
+        <v>130</v>
       </c>
       <c r="L572">
-        <f t="shared" si="17"/>
-        <v>500</v>
+        <f t="shared" si="19"/>
+        <v>840</v>
       </c>
       <c r="M572" t="s">
-        <v>899</v>
+        <v>976</v>
       </c>
       <c r="N572" t="s">
         <v>494</v>
       </c>
       <c r="O572">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="P572">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="Q572">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R572" t="s">
-        <v>33</v>
+        <v>754</v>
       </c>
       <c r="S572" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="AD572" s="4" t="s">
-        <v>596</v>
+        <v>791</v>
+      </c>
+      <c r="AE572" s="4" t="s">
+        <v>977</v>
       </c>
       <c r="AF572" s="1">
-        <v>45402</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="573" spans="1:32" x14ac:dyDescent="0.4">
@@ -41054,66 +41112,69 @@
         <v>572</v>
       </c>
       <c r="B573" t="s">
-        <v>902</v>
+        <v>982</v>
       </c>
       <c r="C573">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D573">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E573">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F573">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G573">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H573">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="I573">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="J573" t="s">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="K573">
-        <f t="shared" si="16"/>
-        <v>202</v>
+        <f t="shared" si="18"/>
+        <v>141</v>
       </c>
       <c r="L573">
-        <f t="shared" si="17"/>
-        <v>500</v>
+        <f t="shared" si="19"/>
+        <v>830</v>
       </c>
       <c r="M573" t="s">
-        <v>899</v>
+        <v>976</v>
       </c>
       <c r="N573" t="s">
         <v>494</v>
       </c>
       <c r="O573">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="P573">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="Q573">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R573" t="s">
-        <v>33</v>
+        <v>608</v>
       </c>
       <c r="S573" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="AD573" s="4" t="s">
-        <v>596</v>
+        <v>978</v>
+      </c>
+      <c r="AE573" s="4" t="s">
+        <v>977</v>
       </c>
       <c r="AF573" s="1">
-        <v>45402</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="574" spans="1:32" x14ac:dyDescent="0.4">
@@ -41121,66 +41182,69 @@
         <v>573</v>
       </c>
       <c r="B574" t="s">
-        <v>903</v>
+        <v>981</v>
       </c>
       <c r="C574">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D574">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E574">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F574">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G574">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H574">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="I574">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="J574" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="K574">
-        <f t="shared" si="16"/>
-        <v>224</v>
+        <f t="shared" si="18"/>
+        <v>135</v>
       </c>
       <c r="L574">
-        <f t="shared" si="17"/>
-        <v>600</v>
+        <f t="shared" si="19"/>
+        <v>820</v>
       </c>
       <c r="M574" t="s">
-        <v>899</v>
+        <v>976</v>
       </c>
       <c r="N574" t="s">
         <v>494</v>
       </c>
       <c r="O574">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="P574">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="Q574">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R574" t="s">
-        <v>33</v>
+        <v>759</v>
       </c>
       <c r="S574" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="AD574" s="4" t="s">
-        <v>596</v>
+        <v>979</v>
+      </c>
+      <c r="AE574" s="4" t="s">
+        <v>977</v>
       </c>
       <c r="AF574" s="1">
-        <v>45402</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="575" spans="1:32" x14ac:dyDescent="0.4">
@@ -41188,66 +41252,69 @@
         <v>574</v>
       </c>
       <c r="B575" t="s">
-        <v>904</v>
+        <v>980</v>
       </c>
       <c r="C575">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D575">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E575">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F575">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="G575">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H575">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="I575">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="J575" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="K575">
-        <f t="shared" si="16"/>
-        <v>203</v>
+        <f t="shared" si="18"/>
+        <v>143</v>
       </c>
       <c r="L575">
-        <f t="shared" si="17"/>
-        <v>600</v>
+        <f t="shared" si="19"/>
+        <v>840</v>
       </c>
       <c r="M575" t="s">
-        <v>899</v>
+        <v>976</v>
       </c>
       <c r="N575" t="s">
         <v>494</v>
       </c>
       <c r="O575">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="P575">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="Q575">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R575" t="s">
-        <v>33</v>
+        <v>848</v>
       </c>
       <c r="S575" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="AD575" s="4" t="s">
-        <v>596</v>
+        <v>897</v>
+      </c>
+      <c r="AE575" s="4" t="s">
+        <v>977</v>
       </c>
       <c r="AF575" s="1">
-        <v>45402</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="576" spans="1:32" x14ac:dyDescent="0.4">
@@ -41255,39 +41322,39 @@
         <v>575</v>
       </c>
       <c r="B576" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="C576">
         <v>65</v>
       </c>
       <c r="D576">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E576">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F576">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G576">
         <v>37</v>
       </c>
       <c r="H576">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I576">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J576" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="K576">
         <f t="shared" si="16"/>
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="L576">
         <f t="shared" si="17"/>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M576" t="s">
         <v>899</v>
@@ -41296,10 +41363,10 @@
         <v>494</v>
       </c>
       <c r="O576">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="P576">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q576">
         <v>1</v>
@@ -41322,39 +41389,39 @@
         <v>576</v>
       </c>
       <c r="B577" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="C577">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D577">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E577">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="F577">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G577">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H577">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="I577">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J577" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="K577">
         <f t="shared" si="16"/>
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="L577">
         <f t="shared" si="17"/>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M577" t="s">
         <v>899</v>
@@ -41363,10 +41430,10 @@
         <v>494</v>
       </c>
       <c r="O577">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="P577">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q577">
         <v>1</v>
@@ -41389,39 +41456,39 @@
         <v>577</v>
       </c>
       <c r="B578" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C578">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D578">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E578">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F578">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G578">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H578">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="I578">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J578" t="s">
-        <v>125</v>
+        <v>359</v>
       </c>
       <c r="K578">
         <f t="shared" si="16"/>
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="L578">
         <f t="shared" si="17"/>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M578" t="s">
         <v>899</v>
@@ -41430,10 +41497,10 @@
         <v>494</v>
       </c>
       <c r="O578">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="P578">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="Q578">
         <v>1</v>
@@ -41456,39 +41523,39 @@
         <v>578</v>
       </c>
       <c r="B579" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="C579">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D579">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E579">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F579">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G579">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H579">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="I579">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J579" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="K579">
-        <f t="shared" ref="K579:K615" si="18">SUM(C579+D579+E579+F579+G579)</f>
-        <v>177</v>
+        <f t="shared" si="16"/>
+        <v>202</v>
       </c>
       <c r="L579">
-        <f t="shared" ref="L579:L615" si="19">SUM(H579+I579)</f>
-        <v>600</v>
+        <f t="shared" si="17"/>
+        <v>500</v>
       </c>
       <c r="M579" t="s">
         <v>899</v>
@@ -41497,10 +41564,10 @@
         <v>494</v>
       </c>
       <c r="O579">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="P579">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="Q579">
         <v>1</v>
@@ -41523,22 +41590,22 @@
         <v>579</v>
       </c>
       <c r="B580" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="C580">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D580">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E580">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F580">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G580">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H580">
         <v>400</v>
@@ -41547,14 +41614,14 @@
         <v>200</v>
       </c>
       <c r="J580" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="K580">
-        <f t="shared" si="18"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>224</v>
       </c>
       <c r="L580">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>600</v>
       </c>
       <c r="M580" t="s">
@@ -41564,10 +41631,10 @@
         <v>494</v>
       </c>
       <c r="O580">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="P580">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Q580">
         <v>1</v>
@@ -41590,22 +41657,22 @@
         <v>580</v>
       </c>
       <c r="B581" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="C581">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D581">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E581">
+        <v>55</v>
+      </c>
+      <c r="F581">
+        <v>48</v>
+      </c>
+      <c r="G581">
         <v>33</v>
-      </c>
-      <c r="F581">
-        <v>33</v>
-      </c>
-      <c r="G581">
-        <v>59</v>
       </c>
       <c r="H581">
         <v>400</v>
@@ -41614,14 +41681,14 @@
         <v>200</v>
       </c>
       <c r="J581" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="K581">
-        <f t="shared" si="18"/>
-        <v>194</v>
+        <f t="shared" si="16"/>
+        <v>203</v>
       </c>
       <c r="L581">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>600</v>
       </c>
       <c r="M581" t="s">
@@ -41631,10 +41698,10 @@
         <v>494</v>
       </c>
       <c r="O581">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="P581">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Q581">
         <v>1</v>
@@ -41657,19 +41724,19 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C582">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D582">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="E582">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F582">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G582">
         <v>37</v>
@@ -41681,14 +41748,14 @@
         <v>200</v>
       </c>
       <c r="J582" t="s">
-        <v>307</v>
+        <v>127</v>
       </c>
       <c r="K582">
-        <f t="shared" si="18"/>
-        <v>229</v>
+        <f t="shared" si="16"/>
+        <v>208</v>
       </c>
       <c r="L582">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>600</v>
       </c>
       <c r="M582" t="s">
@@ -41698,10 +41765,10 @@
         <v>494</v>
       </c>
       <c r="O582">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="P582">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Q582">
         <v>1</v>
@@ -41724,39 +41791,39 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="C583">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D583">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E583">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F583">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G583">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H583">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I583">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J583" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="K583">
-        <f t="shared" si="18"/>
-        <v>207</v>
+        <f t="shared" si="16"/>
+        <v>175</v>
       </c>
       <c r="L583">
-        <f t="shared" si="19"/>
-        <v>800</v>
+        <f t="shared" si="17"/>
+        <v>600</v>
       </c>
       <c r="M583" t="s">
         <v>899</v>
@@ -41765,10 +41832,10 @@
         <v>494</v>
       </c>
       <c r="O583">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P583">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="Q583">
         <v>1</v>
@@ -41791,39 +41858,39 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="C584">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D584">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E584">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F584">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G584">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H584">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I584">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J584" t="s">
         <v>125</v>
       </c>
       <c r="K584">
-        <f t="shared" si="18"/>
-        <v>227</v>
+        <f t="shared" si="16"/>
+        <v>184</v>
       </c>
       <c r="L584">
-        <f t="shared" si="19"/>
-        <v>800</v>
+        <f t="shared" si="17"/>
+        <v>600</v>
       </c>
       <c r="M584" t="s">
         <v>899</v>
@@ -41832,10 +41899,10 @@
         <v>494</v>
       </c>
       <c r="O584">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="P584">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="Q584">
         <v>1</v>
@@ -41858,39 +41925,39 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="C585">
+        <v>33</v>
+      </c>
+      <c r="D585">
+        <v>20</v>
+      </c>
+      <c r="E585">
+        <v>39</v>
+      </c>
+      <c r="F585">
+        <v>35</v>
+      </c>
+      <c r="G585">
         <v>50</v>
       </c>
-      <c r="D585">
-        <v>22</v>
-      </c>
-      <c r="E585">
-        <v>48</v>
-      </c>
-      <c r="F585">
-        <v>32</v>
-      </c>
-      <c r="G585">
-        <v>21</v>
-      </c>
       <c r="H585">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I585">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J585" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="K585">
-        <f t="shared" si="18"/>
-        <v>173</v>
+        <f t="shared" ref="K585:K621" si="20">SUM(C585+D585+E585+F585+G585)</f>
+        <v>177</v>
       </c>
       <c r="L585">
-        <f t="shared" si="19"/>
-        <v>800</v>
+        <f t="shared" ref="L585:L621" si="21">SUM(H585+I585)</f>
+        <v>600</v>
       </c>
       <c r="M585" t="s">
         <v>899</v>
@@ -41899,25 +41966,22 @@
         <v>494</v>
       </c>
       <c r="O585">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P585">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Q585">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R585" t="s">
-        <v>912</v>
+        <v>33</v>
       </c>
       <c r="S585" t="s">
-        <v>904</v>
+        <v>33</v>
       </c>
       <c r="AD585" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="AE585" s="4" t="s">
-        <v>904</v>
+        <v>596</v>
       </c>
       <c r="AF585" s="1">
         <v>45402</v>
@@ -41928,39 +41992,39 @@
         <v>585</v>
       </c>
       <c r="B586" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="C586">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D586">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E586">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F586">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G586">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="H586">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I586">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J586" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="K586">
-        <f t="shared" si="18"/>
-        <v>188</v>
+        <f t="shared" si="20"/>
+        <v>110</v>
       </c>
       <c r="L586">
-        <f t="shared" si="19"/>
-        <v>800</v>
+        <f t="shared" si="21"/>
+        <v>600</v>
       </c>
       <c r="M586" t="s">
         <v>899</v>
@@ -41969,25 +42033,22 @@
         <v>494</v>
       </c>
       <c r="O586">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="P586">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="Q586">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R586" t="s">
-        <v>913</v>
+        <v>33</v>
       </c>
       <c r="S586" t="s">
-        <v>905</v>
+        <v>33</v>
       </c>
       <c r="AD586" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="AE586" s="4" t="s">
-        <v>905</v>
+        <v>596</v>
       </c>
       <c r="AF586" s="1">
         <v>45402</v>
@@ -41998,39 +42059,39 @@
         <v>586</v>
       </c>
       <c r="B587" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="C587">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D587">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E587">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F587">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G587">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H587">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I587">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J587" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="K587">
-        <f t="shared" si="18"/>
-        <v>181</v>
+        <f t="shared" si="20"/>
+        <v>194</v>
       </c>
       <c r="L587">
-        <f t="shared" si="19"/>
-        <v>800</v>
+        <f t="shared" si="21"/>
+        <v>600</v>
       </c>
       <c r="M587" t="s">
         <v>899</v>
@@ -42039,25 +42100,22 @@
         <v>494</v>
       </c>
       <c r="O587">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="P587">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="Q587">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R587" t="s">
-        <v>912</v>
+        <v>33</v>
       </c>
       <c r="S587" t="s">
-        <v>907</v>
+        <v>33</v>
       </c>
       <c r="AD587" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="AE587" s="4" t="s">
-        <v>907</v>
+        <v>596</v>
       </c>
       <c r="AF587" s="1">
         <v>45402</v>
@@ -42068,39 +42126,39 @@
         <v>587</v>
       </c>
       <c r="B588" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C588">
+        <v>55</v>
+      </c>
+      <c r="D588">
+        <v>55</v>
+      </c>
+      <c r="E588">
+        <v>42</v>
+      </c>
+      <c r="F588">
+        <v>40</v>
+      </c>
+      <c r="G588">
         <v>37</v>
       </c>
-      <c r="D588">
-        <v>50</v>
-      </c>
-      <c r="E588">
-        <v>25</v>
-      </c>
-      <c r="F588">
-        <v>33</v>
-      </c>
-      <c r="G588">
-        <v>30</v>
-      </c>
       <c r="H588">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I588">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J588" t="s">
-        <v>123</v>
+        <v>307</v>
       </c>
       <c r="K588">
-        <f t="shared" si="18"/>
-        <v>175</v>
+        <f t="shared" si="20"/>
+        <v>229</v>
       </c>
       <c r="L588">
-        <f t="shared" si="19"/>
-        <v>800</v>
+        <f t="shared" si="21"/>
+        <v>600</v>
       </c>
       <c r="M588" t="s">
         <v>899</v>
@@ -42109,25 +42167,22 @@
         <v>494</v>
       </c>
       <c r="O588">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="P588">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="Q588">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R588" t="s">
-        <v>912</v>
+        <v>33</v>
       </c>
       <c r="S588" t="s">
-        <v>906</v>
+        <v>33</v>
       </c>
       <c r="AD588" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="AE588" s="4" t="s">
-        <v>906</v>
+        <v>596</v>
       </c>
       <c r="AF588" s="1">
         <v>45402</v>
@@ -42138,22 +42193,22 @@
         <v>588</v>
       </c>
       <c r="B589" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="C589">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D589">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E589">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F589">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G589">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H589">
         <v>500</v>
@@ -42162,14 +42217,14 @@
         <v>300</v>
       </c>
       <c r="J589" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="K589">
-        <f t="shared" si="18"/>
-        <v>177</v>
+        <f t="shared" si="20"/>
+        <v>207</v>
       </c>
       <c r="L589">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>800</v>
       </c>
       <c r="M589" t="s">
@@ -42185,19 +42240,16 @@
         <v>90</v>
       </c>
       <c r="Q589">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R589" t="s">
-        <v>913</v>
+        <v>33</v>
       </c>
       <c r="S589" t="s">
-        <v>909</v>
+        <v>33</v>
       </c>
       <c r="AD589" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="AE589" s="4" t="s">
-        <v>909</v>
+        <v>596</v>
       </c>
       <c r="AF589" s="1">
         <v>45402</v>
@@ -42208,22 +42260,22 @@
         <v>589</v>
       </c>
       <c r="B590" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="C590">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D590">
+        <v>42</v>
+      </c>
+      <c r="E590">
+        <v>39</v>
+      </c>
+      <c r="F590">
         <v>55</v>
       </c>
-      <c r="E590">
-        <v>27</v>
-      </c>
-      <c r="F590">
-        <v>39</v>
-      </c>
       <c r="G590">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H590">
         <v>500</v>
@@ -42232,14 +42284,14 @@
         <v>300</v>
       </c>
       <c r="J590" t="s">
-        <v>359</v>
+        <v>125</v>
       </c>
       <c r="K590">
-        <f t="shared" si="18"/>
-        <v>185</v>
+        <f t="shared" si="20"/>
+        <v>227</v>
       </c>
       <c r="L590">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>800</v>
       </c>
       <c r="M590" t="s">
@@ -42249,25 +42301,22 @@
         <v>494</v>
       </c>
       <c r="O590">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="P590">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="Q590">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R590" t="s">
-        <v>913</v>
+        <v>33</v>
       </c>
       <c r="S590" t="s">
-        <v>906</v>
+        <v>33</v>
       </c>
       <c r="AD590" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="AE590" s="4" t="s">
-        <v>906</v>
+        <v>596</v>
       </c>
       <c r="AF590" s="1">
         <v>45402</v>
@@ -42278,22 +42327,22 @@
         <v>590</v>
       </c>
       <c r="B591" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C591">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D591">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E591">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F591">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G591">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H591">
         <v>500</v>
@@ -42302,14 +42351,14 @@
         <v>300</v>
       </c>
       <c r="J591" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="K591">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>173</v>
       </c>
       <c r="L591">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>800</v>
       </c>
       <c r="M591" t="s">
@@ -42319,10 +42368,10 @@
         <v>494</v>
       </c>
       <c r="O591">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="P591">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Q591">
         <v>0</v>
@@ -42331,13 +42380,13 @@
         <v>912</v>
       </c>
       <c r="S591" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="AD591" s="4" t="s">
         <v>912</v>
       </c>
       <c r="AE591" s="4" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="AF591" s="1">
         <v>45402</v>
@@ -42348,39 +42397,39 @@
         <v>591</v>
       </c>
       <c r="B592" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="C592">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D592">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E592">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F592">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G592">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H592">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I592">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J592" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="K592">
-        <f t="shared" si="18"/>
-        <v>256</v>
+        <f t="shared" si="20"/>
+        <v>188</v>
       </c>
       <c r="L592">
-        <f t="shared" si="19"/>
-        <v>1000</v>
+        <f t="shared" si="21"/>
+        <v>800</v>
       </c>
       <c r="M592" t="s">
         <v>899</v>
@@ -42389,25 +42438,25 @@
         <v>494</v>
       </c>
       <c r="O592">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="P592">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="Q592">
         <v>0</v>
       </c>
       <c r="R592" t="s">
-        <v>449</v>
+        <v>913</v>
       </c>
       <c r="S592" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="AD592" s="4" t="s">
-        <v>449</v>
+        <v>913</v>
       </c>
       <c r="AE592" s="4" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="AF592" s="1">
         <v>45402</v>
@@ -42418,39 +42467,39 @@
         <v>592</v>
       </c>
       <c r="B593" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C593">
+        <v>35</v>
+      </c>
+      <c r="D593">
         <v>47</v>
       </c>
-      <c r="D593">
-        <v>33</v>
-      </c>
       <c r="E593">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F593">
+        <v>38</v>
+      </c>
+      <c r="G593">
         <v>40</v>
       </c>
-      <c r="G593">
-        <v>55</v>
-      </c>
       <c r="H593">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I593">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J593" t="s">
-        <v>332</v>
+        <v>105</v>
       </c>
       <c r="K593">
-        <f t="shared" si="18"/>
-        <v>209</v>
+        <f t="shared" si="20"/>
+        <v>181</v>
       </c>
       <c r="L593">
-        <f t="shared" si="19"/>
-        <v>1000</v>
+        <f t="shared" si="21"/>
+        <v>800</v>
       </c>
       <c r="M593" t="s">
         <v>899</v>
@@ -42459,28 +42508,25 @@
         <v>494</v>
       </c>
       <c r="O593">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="P593">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="Q593">
         <v>0</v>
       </c>
       <c r="R593" t="s">
-        <v>33</v>
+        <v>912</v>
       </c>
       <c r="S593" t="s">
-        <v>33</v>
-      </c>
-      <c r="X593" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y593" t="s">
-        <v>131</v>
+        <v>907</v>
       </c>
       <c r="AD593" s="4" t="s">
-        <v>923</v>
+        <v>912</v>
+      </c>
+      <c r="AE593" s="4" t="s">
+        <v>907</v>
       </c>
       <c r="AF593" s="1">
         <v>45402</v>
@@ -42491,39 +42537,39 @@
         <v>593</v>
       </c>
       <c r="B594" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="C594">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D594">
+        <v>50</v>
+      </c>
+      <c r="E594">
         <v>25</v>
       </c>
-      <c r="E594">
-        <v>48</v>
-      </c>
       <c r="F594">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G594">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H594">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I594">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J594" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K594">
-        <f t="shared" si="18"/>
-        <v>226</v>
+        <f t="shared" si="20"/>
+        <v>175</v>
       </c>
       <c r="L594">
-        <f t="shared" si="19"/>
-        <v>1000</v>
+        <f t="shared" si="21"/>
+        <v>800</v>
       </c>
       <c r="M594" t="s">
         <v>899</v>
@@ -42532,28 +42578,25 @@
         <v>494</v>
       </c>
       <c r="O594">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="P594">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="Q594">
         <v>0</v>
       </c>
       <c r="R594" t="s">
-        <v>33</v>
+        <v>912</v>
       </c>
       <c r="S594" t="s">
-        <v>33</v>
-      </c>
-      <c r="X594" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y594" t="s">
-        <v>130</v>
+        <v>906</v>
       </c>
       <c r="AD594" s="4" t="s">
-        <v>925</v>
+        <v>912</v>
+      </c>
+      <c r="AE594" s="4" t="s">
+        <v>906</v>
       </c>
       <c r="AF594" s="1">
         <v>45402</v>
@@ -42564,39 +42607,39 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="C595">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D595">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E595">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F595">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G595">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H595">
+        <v>500</v>
+      </c>
+      <c r="I595">
+        <v>300</v>
+      </c>
+      <c r="J595" t="s">
+        <v>69</v>
+      </c>
+      <c r="K595">
+        <f t="shared" si="20"/>
+        <v>177</v>
+      </c>
+      <c r="L595">
+        <f t="shared" si="21"/>
         <v>800</v>
-      </c>
-      <c r="I595">
-        <v>550</v>
-      </c>
-      <c r="J595" t="s">
-        <v>117</v>
-      </c>
-      <c r="K595">
-        <f t="shared" si="18"/>
-        <v>235</v>
-      </c>
-      <c r="L595">
-        <f t="shared" si="19"/>
-        <v>1350</v>
       </c>
       <c r="M595" t="s">
         <v>899</v>
@@ -42605,22 +42648,25 @@
         <v>494</v>
       </c>
       <c r="O595">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="P595">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="Q595">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R595" t="s">
-        <v>33</v>
+        <v>913</v>
       </c>
       <c r="S595" t="s">
-        <v>33</v>
+        <v>909</v>
       </c>
       <c r="AD595" s="4" t="s">
-        <v>596</v>
+        <v>913</v>
+      </c>
+      <c r="AE595" s="4" t="s">
+        <v>909</v>
       </c>
       <c r="AF595" s="1">
         <v>45402</v>
@@ -42631,39 +42677,39 @@
         <v>595</v>
       </c>
       <c r="B596" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="C596">
+        <v>29</v>
+      </c>
+      <c r="D596">
+        <v>55</v>
+      </c>
+      <c r="E596">
+        <v>27</v>
+      </c>
+      <c r="F596">
         <v>39</v>
       </c>
-      <c r="D596">
-        <v>40</v>
-      </c>
-      <c r="E596">
-        <v>34</v>
-      </c>
-      <c r="F596">
-        <v>28</v>
-      </c>
       <c r="G596">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H596">
+        <v>500</v>
+      </c>
+      <c r="I596">
+        <v>300</v>
+      </c>
+      <c r="J596" t="s">
+        <v>359</v>
+      </c>
+      <c r="K596">
+        <f t="shared" si="20"/>
+        <v>185</v>
+      </c>
+      <c r="L596">
+        <f t="shared" si="21"/>
         <v>800</v>
-      </c>
-      <c r="I596">
-        <v>550</v>
-      </c>
-      <c r="J596" t="s">
-        <v>289</v>
-      </c>
-      <c r="K596">
-        <f t="shared" si="18"/>
-        <v>190</v>
-      </c>
-      <c r="L596">
-        <f t="shared" si="19"/>
-        <v>1350</v>
       </c>
       <c r="M596" t="s">
         <v>899</v>
@@ -42672,22 +42718,22 @@
         <v>494</v>
       </c>
       <c r="O596">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="P596">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="Q596">
         <v>0</v>
       </c>
       <c r="R596" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="S596" t="s">
         <v>906</v>
       </c>
       <c r="AD596" s="4" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="AE596" s="4" t="s">
         <v>906</v>
@@ -42701,39 +42747,39 @@
         <v>596</v>
       </c>
       <c r="B597" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="C597">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D597">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E597">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F597">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G597">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H597">
+        <v>500</v>
+      </c>
+      <c r="I597">
+        <v>300</v>
+      </c>
+      <c r="J597" t="s">
+        <v>141</v>
+      </c>
+      <c r="K597">
+        <f t="shared" si="20"/>
+        <v>173</v>
+      </c>
+      <c r="L597">
+        <f t="shared" si="21"/>
         <v>800</v>
-      </c>
-      <c r="I597">
-        <v>550</v>
-      </c>
-      <c r="J597" t="s">
-        <v>239</v>
-      </c>
-      <c r="K597">
-        <f t="shared" si="18"/>
-        <v>193</v>
-      </c>
-      <c r="L597">
-        <f t="shared" si="19"/>
-        <v>1350</v>
       </c>
       <c r="M597" t="s">
         <v>899</v>
@@ -42742,25 +42788,25 @@
         <v>494</v>
       </c>
       <c r="O597">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="P597">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="Q597">
         <v>0</v>
       </c>
       <c r="R597" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="S597" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="AD597" s="4" t="s">
-        <v>930</v>
+        <v>912</v>
       </c>
       <c r="AE597" s="4" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="AF597" s="1">
         <v>45402</v>
@@ -42771,39 +42817,39 @@
         <v>597</v>
       </c>
       <c r="B598" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="C598">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D598">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E598">
+        <v>54</v>
+      </c>
+      <c r="F598">
         <v>47</v>
       </c>
-      <c r="F598">
-        <v>39</v>
-      </c>
       <c r="G598">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H598">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I598">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="J598" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="K598">
-        <f t="shared" si="18"/>
-        <v>219</v>
+        <f t="shared" si="20"/>
+        <v>256</v>
       </c>
       <c r="L598">
-        <f t="shared" si="19"/>
-        <v>1350</v>
+        <f t="shared" si="21"/>
+        <v>1000</v>
       </c>
       <c r="M598" t="s">
         <v>899</v>
@@ -42812,25 +42858,25 @@
         <v>494</v>
       </c>
       <c r="O598">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="P598">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="Q598">
         <v>0</v>
       </c>
       <c r="R598" t="s">
-        <v>915</v>
+        <v>449</v>
       </c>
       <c r="S598" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="AD598" s="4" t="s">
-        <v>932</v>
+        <v>449</v>
       </c>
       <c r="AE598" s="4" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="AF598" s="1">
         <v>45402</v>
@@ -42841,39 +42887,39 @@
         <v>598</v>
       </c>
       <c r="B599" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="C599">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D599">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E599">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F599">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G599">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H599">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I599">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="J599" t="s">
-        <v>129</v>
+        <v>332</v>
       </c>
       <c r="K599">
-        <f t="shared" si="18"/>
-        <v>255</v>
+        <f t="shared" si="20"/>
+        <v>209</v>
       </c>
       <c r="L599">
-        <f t="shared" si="19"/>
-        <v>1350</v>
+        <f t="shared" si="21"/>
+        <v>1000</v>
       </c>
       <c r="M599" t="s">
         <v>899</v>
@@ -42882,34 +42928,28 @@
         <v>494</v>
       </c>
       <c r="O599">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="P599">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="Q599">
         <v>0</v>
       </c>
       <c r="R599" t="s">
-        <v>926</v>
+        <v>33</v>
       </c>
       <c r="S599" t="s">
-        <v>927</v>
-      </c>
-      <c r="T599" t="s">
-        <v>926</v>
-      </c>
-      <c r="U599" t="s">
-        <v>929</v>
-      </c>
-      <c r="V599" t="s">
-        <v>926</v>
-      </c>
-      <c r="W599" t="s">
-        <v>931</v>
+        <v>33</v>
+      </c>
+      <c r="X599" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y599" t="s">
+        <v>131</v>
       </c>
       <c r="AD599" s="4" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="AF599" s="1">
         <v>45402</v>
@@ -42920,39 +42960,39 @@
         <v>599</v>
       </c>
       <c r="B600" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="C600">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D600">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E600">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F600">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G600">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H600">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I600">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="J600" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K600">
-        <f t="shared" si="18"/>
-        <v>234</v>
+        <f t="shared" si="20"/>
+        <v>226</v>
       </c>
       <c r="L600">
-        <f t="shared" si="19"/>
-        <v>1350</v>
+        <f t="shared" si="21"/>
+        <v>1000</v>
       </c>
       <c r="M600" t="s">
         <v>899</v>
@@ -42961,34 +43001,28 @@
         <v>494</v>
       </c>
       <c r="O600">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="P600">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="Q600">
         <v>0</v>
       </c>
       <c r="R600" t="s">
-        <v>927</v>
+        <v>33</v>
       </c>
       <c r="S600" t="s">
-        <v>926</v>
-      </c>
-      <c r="T600" t="s">
-        <v>929</v>
-      </c>
-      <c r="U600" t="s">
-        <v>926</v>
-      </c>
-      <c r="V600" t="s">
-        <v>931</v>
-      </c>
-      <c r="W600" t="s">
-        <v>926</v>
+        <v>33</v>
+      </c>
+      <c r="X600" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y600" t="s">
+        <v>130</v>
       </c>
       <c r="AD600" s="4" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="AF600" s="1">
         <v>45402</v>
@@ -42999,22 +43033,22 @@
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="C601">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D601">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E601">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F601">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G601">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H601">
         <v>800</v>
@@ -43023,14 +43057,14 @@
         <v>550</v>
       </c>
       <c r="J601" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K601">
-        <f t="shared" si="18"/>
-        <v>242</v>
+        <f t="shared" si="20"/>
+        <v>235</v>
       </c>
       <c r="L601">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1350</v>
       </c>
       <c r="M601" t="s">
@@ -43040,25 +43074,22 @@
         <v>494</v>
       </c>
       <c r="O601">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="P601">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="Q601">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R601" t="s">
-        <v>900</v>
+        <v>33</v>
       </c>
       <c r="S601" t="s">
-        <v>904</v>
+        <v>33</v>
       </c>
       <c r="AD601" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="AE601" s="4" t="s">
-        <v>904</v>
+        <v>596</v>
       </c>
       <c r="AF601" s="1">
         <v>45402</v>
@@ -43069,22 +43100,22 @@
         <v>601</v>
       </c>
       <c r="B602" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="C602">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D602">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E602">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F602">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G602">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H602">
         <v>800</v>
@@ -43093,14 +43124,14 @@
         <v>550</v>
       </c>
       <c r="J602" t="s">
-        <v>113</v>
+        <v>289</v>
       </c>
       <c r="K602">
-        <f t="shared" si="18"/>
-        <v>183</v>
+        <f t="shared" si="20"/>
+        <v>190</v>
       </c>
       <c r="L602">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1350</v>
       </c>
       <c r="M602" t="s">
@@ -43110,25 +43141,25 @@
         <v>494</v>
       </c>
       <c r="O602">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="P602">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="Q602">
         <v>0</v>
       </c>
       <c r="R602" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="S602" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="AD602" s="4" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="AE602" s="4" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="AF602" s="1">
         <v>45402</v>
@@ -43139,39 +43170,39 @@
         <v>602</v>
       </c>
       <c r="B603" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="C603">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D603">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E603">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F603">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G603">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H603">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="I603">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="J603" t="s">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="K603">
-        <f t="shared" si="18"/>
-        <v>241</v>
+        <f t="shared" si="20"/>
+        <v>193</v>
       </c>
       <c r="L603">
-        <f t="shared" si="19"/>
-        <v>1550</v>
+        <f t="shared" si="21"/>
+        <v>1350</v>
       </c>
       <c r="M603" t="s">
         <v>899</v>
@@ -43180,22 +43211,25 @@
         <v>494</v>
       </c>
       <c r="O603">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="P603">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="Q603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R603" t="s">
-        <v>33</v>
+        <v>919</v>
       </c>
       <c r="S603" t="s">
-        <v>33</v>
+        <v>906</v>
       </c>
       <c r="AD603" s="4" t="s">
-        <v>596</v>
+        <v>930</v>
+      </c>
+      <c r="AE603" s="4" t="s">
+        <v>906</v>
       </c>
       <c r="AF603" s="1">
         <v>45402</v>
@@ -43206,39 +43240,39 @@
         <v>603</v>
       </c>
       <c r="B604" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="C604">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D604">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E604">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F604">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G604">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H604">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="I604">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="J604" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="K604">
-        <f t="shared" si="18"/>
-        <v>229</v>
+        <f t="shared" si="20"/>
+        <v>219</v>
       </c>
       <c r="L604">
-        <f t="shared" si="19"/>
-        <v>1550</v>
+        <f t="shared" si="21"/>
+        <v>1350</v>
       </c>
       <c r="M604" t="s">
         <v>899</v>
@@ -43247,22 +43281,22 @@
         <v>494</v>
       </c>
       <c r="O604">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="P604">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="Q604">
         <v>0</v>
       </c>
       <c r="R604" t="s">
-        <v>940</v>
+        <v>915</v>
       </c>
       <c r="S604" t="s">
         <v>905</v>
       </c>
       <c r="AD604" s="4" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="AE604" s="4" t="s">
         <v>905</v>
@@ -43276,39 +43310,39 @@
         <v>604</v>
       </c>
       <c r="B605" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="C605">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D605">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E605">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F605">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G605">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H605">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="I605">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="J605" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K605">
-        <f t="shared" si="18"/>
-        <v>222</v>
+        <f t="shared" si="20"/>
+        <v>255</v>
       </c>
       <c r="L605">
-        <f t="shared" si="19"/>
-        <v>1550</v>
+        <f t="shared" si="21"/>
+        <v>1350</v>
       </c>
       <c r="M605" t="s">
         <v>899</v>
@@ -43317,25 +43351,34 @@
         <v>494</v>
       </c>
       <c r="O605">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="P605">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q605">
         <v>0</v>
       </c>
       <c r="R605" t="s">
+        <v>926</v>
+      </c>
+      <c r="S605" t="s">
+        <v>927</v>
+      </c>
+      <c r="T605" t="s">
+        <v>926</v>
+      </c>
+      <c r="U605" t="s">
         <v>929</v>
       </c>
-      <c r="S605" t="s">
-        <v>906</v>
+      <c r="V605" t="s">
+        <v>926</v>
+      </c>
+      <c r="W605" t="s">
+        <v>931</v>
       </c>
       <c r="AD605" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="AE605" s="4" t="s">
-        <v>906</v>
+        <v>934</v>
       </c>
       <c r="AF605" s="1">
         <v>45402</v>
@@ -43346,39 +43389,39 @@
         <v>605</v>
       </c>
       <c r="B606" t="s">
-        <v>895</v>
+        <v>935</v>
       </c>
       <c r="C606">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D606">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E606">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F606">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G606">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H606">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="I606">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="J606" t="s">
-        <v>454</v>
+        <v>121</v>
       </c>
       <c r="K606">
-        <f t="shared" si="18"/>
-        <v>229</v>
+        <f t="shared" si="20"/>
+        <v>234</v>
       </c>
       <c r="L606">
-        <f t="shared" si="19"/>
-        <v>1550</v>
+        <f t="shared" si="21"/>
+        <v>1350</v>
       </c>
       <c r="M606" t="s">
         <v>899</v>
@@ -43387,25 +43430,34 @@
         <v>494</v>
       </c>
       <c r="O606">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="P606">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q606">
         <v>0</v>
       </c>
       <c r="R606" t="s">
+        <v>927</v>
+      </c>
+      <c r="S606" t="s">
+        <v>926</v>
+      </c>
+      <c r="T606" t="s">
+        <v>929</v>
+      </c>
+      <c r="U606" t="s">
+        <v>926</v>
+      </c>
+      <c r="V606" t="s">
         <v>931</v>
       </c>
-      <c r="S606" t="s">
-        <v>906</v>
+      <c r="W606" t="s">
+        <v>926</v>
       </c>
       <c r="AD606" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="AE606" s="4" t="s">
-        <v>906</v>
+        <v>936</v>
       </c>
       <c r="AF606" s="1">
         <v>45402</v>
@@ -43416,39 +43468,39 @@
         <v>606</v>
       </c>
       <c r="B607" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="C607">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D607">
+        <v>20</v>
+      </c>
+      <c r="E607">
+        <v>60</v>
+      </c>
+      <c r="F607">
         <v>55</v>
       </c>
-      <c r="E607">
-        <v>41</v>
-      </c>
-      <c r="F607">
-        <v>42</v>
-      </c>
       <c r="G607">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H607">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="I607">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="J607" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="K607">
-        <f t="shared" si="18"/>
-        <v>222</v>
+        <f t="shared" si="20"/>
+        <v>242</v>
       </c>
       <c r="L607">
-        <f t="shared" si="19"/>
-        <v>1550</v>
+        <f t="shared" si="21"/>
+        <v>1350</v>
       </c>
       <c r="M607" t="s">
         <v>899</v>
@@ -43457,25 +43509,25 @@
         <v>494</v>
       </c>
       <c r="O607">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="P607">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="Q607">
         <v>0</v>
       </c>
       <c r="R607" t="s">
-        <v>940</v>
+        <v>900</v>
       </c>
       <c r="S607" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="AD607" s="4" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="AE607" s="4" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="AF607" s="1">
         <v>45402</v>
@@ -43486,39 +43538,39 @@
         <v>607</v>
       </c>
       <c r="B608" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C608">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D608">
+        <v>17</v>
+      </c>
+      <c r="E608">
         <v>39</v>
-      </c>
-      <c r="E608">
-        <v>55</v>
       </c>
       <c r="F608">
         <v>47</v>
       </c>
       <c r="G608">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="H608">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="I608">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="J608" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="K608">
-        <f t="shared" si="18"/>
-        <v>245</v>
+        <f t="shared" si="20"/>
+        <v>183</v>
       </c>
       <c r="L608">
-        <f t="shared" si="19"/>
-        <v>1550</v>
+        <f t="shared" si="21"/>
+        <v>1350</v>
       </c>
       <c r="M608" t="s">
         <v>899</v>
@@ -43527,25 +43579,25 @@
         <v>494</v>
       </c>
       <c r="O608">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="P608">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="Q608">
         <v>0</v>
       </c>
       <c r="R608" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="S608" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="AD608" s="4" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="AE608" s="4" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="AF608" s="1">
         <v>45402</v>
@@ -43556,22 +43608,22 @@
         <v>608</v>
       </c>
       <c r="B609" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="C609">
+        <v>53</v>
+      </c>
+      <c r="D609">
+        <v>39</v>
+      </c>
+      <c r="E609">
         <v>58</v>
       </c>
-      <c r="D609">
-        <v>9</v>
-      </c>
-      <c r="E609">
-        <v>54</v>
-      </c>
       <c r="F609">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G609">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H609">
         <v>950</v>
@@ -43580,14 +43632,14 @@
         <v>600</v>
       </c>
       <c r="J609" t="s">
-        <v>100</v>
+        <v>305</v>
       </c>
       <c r="K609">
-        <f t="shared" si="18"/>
-        <v>211</v>
+        <f t="shared" si="20"/>
+        <v>241</v>
       </c>
       <c r="L609">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1550</v>
       </c>
       <c r="M609" t="s">
@@ -43603,19 +43655,16 @@
         <v>180</v>
       </c>
       <c r="Q609">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R609" t="s">
-        <v>937</v>
+        <v>33</v>
       </c>
       <c r="S609" t="s">
-        <v>904</v>
+        <v>33</v>
       </c>
       <c r="AD609" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="AE609" s="4" t="s">
-        <v>904</v>
+        <v>596</v>
       </c>
       <c r="AF609" s="1">
         <v>45402</v>
@@ -43626,39 +43675,39 @@
         <v>609</v>
       </c>
       <c r="B610" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C610">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D610">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E610">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F610">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G610">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H610">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="I610">
-        <v>777</v>
+        <v>600</v>
       </c>
       <c r="J610" t="s">
-        <v>305</v>
+        <v>127</v>
       </c>
       <c r="K610">
-        <f t="shared" si="18"/>
-        <v>281</v>
+        <f t="shared" si="20"/>
+        <v>229</v>
       </c>
       <c r="L610">
-        <f t="shared" si="19"/>
-        <v>1977</v>
+        <f t="shared" si="21"/>
+        <v>1550</v>
       </c>
       <c r="M610" t="s">
         <v>899</v>
@@ -43667,22 +43716,25 @@
         <v>494</v>
       </c>
       <c r="O610">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="P610">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="Q610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R610" t="s">
-        <v>33</v>
+        <v>940</v>
       </c>
       <c r="S610" t="s">
-        <v>33</v>
+        <v>905</v>
       </c>
       <c r="AD610" s="4" t="s">
-        <v>596</v>
+        <v>940</v>
+      </c>
+      <c r="AE610" s="4" t="s">
+        <v>905</v>
       </c>
       <c r="AF610" s="1">
         <v>45402</v>
@@ -43693,39 +43745,39 @@
         <v>610</v>
       </c>
       <c r="B611" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="C611">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D611">
+        <v>51</v>
+      </c>
+      <c r="E611">
+        <v>42</v>
+      </c>
+      <c r="F611">
         <v>39</v>
       </c>
-      <c r="E611">
-        <v>53</v>
-      </c>
-      <c r="F611">
-        <v>49</v>
-      </c>
       <c r="G611">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H611">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="I611">
-        <v>777</v>
+        <v>600</v>
       </c>
       <c r="J611" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K611">
-        <f t="shared" si="18"/>
-        <v>237</v>
+        <f t="shared" si="20"/>
+        <v>222</v>
       </c>
       <c r="L611">
-        <f t="shared" si="19"/>
-        <v>1977</v>
+        <f t="shared" si="21"/>
+        <v>1550</v>
       </c>
       <c r="M611" t="s">
         <v>899</v>
@@ -43734,25 +43786,25 @@
         <v>494</v>
       </c>
       <c r="O611">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="P611">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="Q611">
         <v>0</v>
       </c>
       <c r="R611" t="s">
-        <v>901</v>
+        <v>929</v>
       </c>
       <c r="S611" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="AD611" s="4" t="s">
-        <v>901</v>
+        <v>929</v>
       </c>
       <c r="AE611" s="4" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="AF611" s="1">
         <v>45402</v>
@@ -43763,39 +43815,39 @@
         <v>611</v>
       </c>
       <c r="B612" t="s">
-        <v>948</v>
+        <v>895</v>
       </c>
       <c r="C612">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D612">
+        <v>60</v>
+      </c>
+      <c r="E612">
+        <v>44</v>
+      </c>
+      <c r="F612">
+        <v>31</v>
+      </c>
+      <c r="G612">
         <v>55</v>
       </c>
-      <c r="E612">
-        <v>43</v>
-      </c>
-      <c r="F612">
-        <v>41</v>
-      </c>
-      <c r="G612">
-        <v>44</v>
-      </c>
       <c r="H612">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="I612">
-        <v>777</v>
+        <v>600</v>
       </c>
       <c r="J612" t="s">
-        <v>289</v>
+        <v>454</v>
       </c>
       <c r="K612">
-        <f t="shared" si="18"/>
-        <v>233</v>
+        <f t="shared" si="20"/>
+        <v>229</v>
       </c>
       <c r="L612">
-        <f t="shared" si="19"/>
-        <v>1977</v>
+        <f t="shared" si="21"/>
+        <v>1550</v>
       </c>
       <c r="M612" t="s">
         <v>899</v>
@@ -43813,13 +43865,13 @@
         <v>0</v>
       </c>
       <c r="R612" t="s">
-        <v>895</v>
+        <v>931</v>
       </c>
       <c r="S612" t="s">
         <v>906</v>
       </c>
       <c r="AD612" s="4" t="s">
-        <v>895</v>
+        <v>931</v>
       </c>
       <c r="AE612" s="4" t="s">
         <v>906</v>
@@ -43833,39 +43885,39 @@
         <v>612</v>
       </c>
       <c r="B613" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="C613">
+        <v>44</v>
+      </c>
+      <c r="D613">
         <v>55</v>
       </c>
-      <c r="D613">
-        <v>29</v>
-      </c>
       <c r="E613">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F613">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G613">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H613">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="I613">
-        <v>777</v>
+        <v>600</v>
       </c>
       <c r="J613" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="K613">
-        <f t="shared" si="18"/>
-        <v>227</v>
+        <f t="shared" si="20"/>
+        <v>222</v>
       </c>
       <c r="L613">
-        <f t="shared" si="19"/>
-        <v>1977</v>
+        <f t="shared" si="21"/>
+        <v>1550</v>
       </c>
       <c r="M613" t="s">
         <v>899</v>
@@ -43874,10 +43926,10 @@
         <v>494</v>
       </c>
       <c r="O613">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="P613">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="Q613">
         <v>0</v>
@@ -43886,13 +43938,13 @@
         <v>940</v>
       </c>
       <c r="S613" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="AD613" s="4" t="s">
         <v>940</v>
       </c>
       <c r="AE613" s="4" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="AF613" s="1">
         <v>45402</v>
@@ -43903,39 +43955,39 @@
         <v>613</v>
       </c>
       <c r="B614" t="s">
+        <v>944</v>
+      </c>
+      <c r="C614">
+        <v>50</v>
+      </c>
+      <c r="D614">
+        <v>39</v>
+      </c>
+      <c r="E614">
+        <v>55</v>
+      </c>
+      <c r="F614">
+        <v>47</v>
+      </c>
+      <c r="G614">
+        <v>54</v>
+      </c>
+      <c r="H614">
         <v>950</v>
       </c>
-      <c r="C614">
-        <v>59</v>
-      </c>
-      <c r="D614">
-        <v>44</v>
-      </c>
-      <c r="E614">
-        <v>48</v>
-      </c>
-      <c r="F614">
-        <v>45</v>
-      </c>
-      <c r="G614">
-        <v>41</v>
-      </c>
-      <c r="H614">
-        <v>1200</v>
-      </c>
       <c r="I614">
-        <v>777</v>
+        <v>600</v>
       </c>
       <c r="J614" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="K614">
-        <f t="shared" si="18"/>
-        <v>237</v>
+        <f t="shared" si="20"/>
+        <v>245</v>
       </c>
       <c r="L614">
-        <f t="shared" si="19"/>
-        <v>1977</v>
+        <f t="shared" si="21"/>
+        <v>1550</v>
       </c>
       <c r="M614" t="s">
         <v>899</v>
@@ -43944,25 +43996,25 @@
         <v>494</v>
       </c>
       <c r="O614">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="P614">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="Q614">
         <v>0</v>
       </c>
       <c r="R614" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="S614" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="AD614" s="4" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="AE614" s="4" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="AF614" s="1">
         <v>45402</v>
@@ -43973,39 +44025,39 @@
         <v>614</v>
       </c>
       <c r="B615" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="C615">
+        <v>58</v>
+      </c>
+      <c r="D615">
+        <v>9</v>
+      </c>
+      <c r="E615">
+        <v>54</v>
+      </c>
+      <c r="F615">
         <v>52</v>
-      </c>
-      <c r="D615">
-        <v>39</v>
-      </c>
-      <c r="E615">
-        <v>46</v>
-      </c>
-      <c r="F615">
-        <v>43</v>
       </c>
       <c r="G615">
         <v>38</v>
       </c>
       <c r="H615">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="I615">
-        <v>777</v>
+        <v>600</v>
       </c>
       <c r="J615" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="K615">
-        <f t="shared" si="18"/>
-        <v>218</v>
+        <f t="shared" si="20"/>
+        <v>211</v>
       </c>
       <c r="L615">
-        <f t="shared" si="19"/>
-        <v>1977</v>
+        <f t="shared" si="21"/>
+        <v>1550</v>
       </c>
       <c r="M615" t="s">
         <v>899</v>
@@ -44014,27 +44066,444 @@
         <v>494</v>
       </c>
       <c r="O615">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="P615">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="Q615">
         <v>0</v>
       </c>
       <c r="R615" t="s">
+        <v>937</v>
+      </c>
+      <c r="S615" t="s">
+        <v>904</v>
+      </c>
+      <c r="AD615" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="AE615" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="AF615" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="616" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A616">
+        <v>615</v>
+      </c>
+      <c r="B616" t="s">
+        <v>946</v>
+      </c>
+      <c r="C616">
+        <v>70</v>
+      </c>
+      <c r="D616">
+        <v>53</v>
+      </c>
+      <c r="E616">
+        <v>59</v>
+      </c>
+      <c r="F616">
+        <v>52</v>
+      </c>
+      <c r="G616">
+        <v>47</v>
+      </c>
+      <c r="H616">
+        <v>1200</v>
+      </c>
+      <c r="I616">
+        <v>777</v>
+      </c>
+      <c r="J616" t="s">
+        <v>305</v>
+      </c>
+      <c r="K616">
+        <f t="shared" si="20"/>
+        <v>281</v>
+      </c>
+      <c r="L616">
+        <f t="shared" si="21"/>
+        <v>1977</v>
+      </c>
+      <c r="M616" t="s">
+        <v>899</v>
+      </c>
+      <c r="N616" t="s">
+        <v>494</v>
+      </c>
+      <c r="O616">
+        <v>200</v>
+      </c>
+      <c r="P616">
+        <v>200</v>
+      </c>
+      <c r="Q616">
+        <v>1</v>
+      </c>
+      <c r="R616" t="s">
+        <v>33</v>
+      </c>
+      <c r="S616" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD616" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="AF616" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="617" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A617">
+        <v>616</v>
+      </c>
+      <c r="B617" t="s">
         <v>947</v>
       </c>
-      <c r="S615" t="s">
+      <c r="C617">
+        <v>57</v>
+      </c>
+      <c r="D617">
+        <v>39</v>
+      </c>
+      <c r="E617">
+        <v>53</v>
+      </c>
+      <c r="F617">
+        <v>49</v>
+      </c>
+      <c r="G617">
+        <v>39</v>
+      </c>
+      <c r="H617">
+        <v>1200</v>
+      </c>
+      <c r="I617">
+        <v>777</v>
+      </c>
+      <c r="J617" t="s">
+        <v>95</v>
+      </c>
+      <c r="K617">
+        <f t="shared" si="20"/>
+        <v>237</v>
+      </c>
+      <c r="L617">
+        <f t="shared" si="21"/>
+        <v>1977</v>
+      </c>
+      <c r="M617" t="s">
+        <v>899</v>
+      </c>
+      <c r="N617" t="s">
+        <v>494</v>
+      </c>
+      <c r="O617">
+        <v>200</v>
+      </c>
+      <c r="P617">
+        <v>200</v>
+      </c>
+      <c r="Q617">
+        <v>0</v>
+      </c>
+      <c r="R617" t="s">
+        <v>901</v>
+      </c>
+      <c r="S617" t="s">
+        <v>904</v>
+      </c>
+      <c r="AD617" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="AE617" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="AF617" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="618" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A618">
+        <v>617</v>
+      </c>
+      <c r="B618" t="s">
+        <v>948</v>
+      </c>
+      <c r="C618">
+        <v>50</v>
+      </c>
+      <c r="D618">
+        <v>55</v>
+      </c>
+      <c r="E618">
+        <v>43</v>
+      </c>
+      <c r="F618">
+        <v>41</v>
+      </c>
+      <c r="G618">
+        <v>44</v>
+      </c>
+      <c r="H618">
+        <v>1200</v>
+      </c>
+      <c r="I618">
+        <v>777</v>
+      </c>
+      <c r="J618" t="s">
+        <v>289</v>
+      </c>
+      <c r="K618">
+        <f t="shared" si="20"/>
+        <v>233</v>
+      </c>
+      <c r="L618">
+        <f t="shared" si="21"/>
+        <v>1977</v>
+      </c>
+      <c r="M618" t="s">
+        <v>899</v>
+      </c>
+      <c r="N618" t="s">
+        <v>494</v>
+      </c>
+      <c r="O618">
+        <v>200</v>
+      </c>
+      <c r="P618">
+        <v>200</v>
+      </c>
+      <c r="Q618">
+        <v>0</v>
+      </c>
+      <c r="R618" t="s">
+        <v>895</v>
+      </c>
+      <c r="S618" t="s">
+        <v>906</v>
+      </c>
+      <c r="AD618" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="AE618" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="AF618" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="619" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A619">
+        <v>618</v>
+      </c>
+      <c r="B619" t="s">
+        <v>949</v>
+      </c>
+      <c r="C619">
+        <v>55</v>
+      </c>
+      <c r="D619">
+        <v>29</v>
+      </c>
+      <c r="E619">
+        <v>49</v>
+      </c>
+      <c r="F619">
+        <v>39</v>
+      </c>
+      <c r="G619">
+        <v>55</v>
+      </c>
+      <c r="H619">
+        <v>1200</v>
+      </c>
+      <c r="I619">
+        <v>777</v>
+      </c>
+      <c r="J619" t="s">
+        <v>230</v>
+      </c>
+      <c r="K619">
+        <f t="shared" si="20"/>
+        <v>227</v>
+      </c>
+      <c r="L619">
+        <f t="shared" si="21"/>
+        <v>1977</v>
+      </c>
+      <c r="M619" t="s">
+        <v>899</v>
+      </c>
+      <c r="N619" t="s">
+        <v>494</v>
+      </c>
+      <c r="O619">
+        <v>210</v>
+      </c>
+      <c r="P619">
+        <v>210</v>
+      </c>
+      <c r="Q619">
+        <v>0</v>
+      </c>
+      <c r="R619" t="s">
+        <v>940</v>
+      </c>
+      <c r="S619" t="s">
+        <v>910</v>
+      </c>
+      <c r="AD619" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="AE619" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="AF619" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="620" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A620">
+        <v>619</v>
+      </c>
+      <c r="B620" t="s">
+        <v>950</v>
+      </c>
+      <c r="C620">
+        <v>59</v>
+      </c>
+      <c r="D620">
+        <v>44</v>
+      </c>
+      <c r="E620">
+        <v>48</v>
+      </c>
+      <c r="F620">
+        <v>45</v>
+      </c>
+      <c r="G620">
+        <v>41</v>
+      </c>
+      <c r="H620">
+        <v>1200</v>
+      </c>
+      <c r="I620">
+        <v>777</v>
+      </c>
+      <c r="J620" t="s">
+        <v>218</v>
+      </c>
+      <c r="K620">
+        <f t="shared" si="20"/>
+        <v>237</v>
+      </c>
+      <c r="L620">
+        <f t="shared" si="21"/>
+        <v>1977</v>
+      </c>
+      <c r="M620" t="s">
+        <v>899</v>
+      </c>
+      <c r="N620" t="s">
+        <v>494</v>
+      </c>
+      <c r="O620">
+        <v>210</v>
+      </c>
+      <c r="P620">
+        <v>210</v>
+      </c>
+      <c r="Q620">
+        <v>0</v>
+      </c>
+      <c r="R620" t="s">
+        <v>939</v>
+      </c>
+      <c r="S620" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD620" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="AE620" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="AF620" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="621" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A621">
+        <v>620</v>
+      </c>
+      <c r="B621" t="s">
+        <v>951</v>
+      </c>
+      <c r="C621">
+        <v>52</v>
+      </c>
+      <c r="D621">
+        <v>39</v>
+      </c>
+      <c r="E621">
+        <v>46</v>
+      </c>
+      <c r="F621">
+        <v>43</v>
+      </c>
+      <c r="G621">
+        <v>38</v>
+      </c>
+      <c r="H621">
+        <v>1200</v>
+      </c>
+      <c r="I621">
+        <v>777</v>
+      </c>
+      <c r="J621" t="s">
+        <v>210</v>
+      </c>
+      <c r="K621">
+        <f t="shared" si="20"/>
+        <v>218</v>
+      </c>
+      <c r="L621">
+        <f t="shared" si="21"/>
+        <v>1977</v>
+      </c>
+      <c r="M621" t="s">
+        <v>899</v>
+      </c>
+      <c r="N621" t="s">
+        <v>494</v>
+      </c>
+      <c r="O621">
+        <v>210</v>
+      </c>
+      <c r="P621">
+        <v>210</v>
+      </c>
+      <c r="Q621">
+        <v>0</v>
+      </c>
+      <c r="R621" t="s">
+        <v>947</v>
+      </c>
+      <c r="S621" t="s">
         <v>918</v>
       </c>
-      <c r="AD615" s="4" t="s">
+      <c r="AD621" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="AE615" s="4" t="s">
+      <c r="AE621" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="AF615" s="1">
+      <c r="AF621" s="1">
         <v>45402</v>
       </c>
     </row>
